--- a/画面.xlsx
+++ b/画面.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11685" windowHeight="8640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12240" windowHeight="6765" tabRatio="761" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="交通費精算" sheetId="1" r:id="rId1"/>
     <sheet name="旅費申請" sheetId="2" r:id="rId2"/>
-    <sheet name="旅費精算" sheetId="3" r:id="rId3"/>
+    <sheet name="旅費_" sheetId="6" r:id="rId3"/>
+    <sheet name="旅費_ (2)" sheetId="7" r:id="rId4"/>
+    <sheet name="経費" sheetId="4" r:id="rId5"/>
+    <sheet name="経費 (2)" sheetId="8" r:id="rId6"/>
+    <sheet name="交際費" sheetId="5" r:id="rId7"/>
+    <sheet name="交際費 (2)" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="57">
   <si>
     <t>…必須入力</t>
     <rPh sb="1" eb="3">
@@ -105,13 +110,508 @@
   <si>
     <t>・精算日付が現在日より2週間前の場合</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加する項目</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル添付</t>
+    <rPh sb="4" eb="6">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精算遅延報告書</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ホウコクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予算超過報告書</t>
+    <rPh sb="0" eb="2">
+      <t>ヨサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウカ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ホウコクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的</t>
+    <rPh sb="0" eb="2">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予算超過の理由</t>
+    <rPh sb="0" eb="2">
+      <t>ヨサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精算</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル添付（一般申請）</t>
+    <rPh sb="4" eb="6">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶弔連絡</t>
+    <rPh sb="0" eb="2">
+      <t>ケイチョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>レンラク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般申請</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支払い相手（店など）</t>
+    <rPh sb="0" eb="2">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック項目</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事後申請の場合の理由</t>
+    <rPh sb="0" eb="2">
+      <t>ジゴ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警告</t>
+    <rPh sb="0" eb="2">
+      <t>ケイコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須入力項目</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金額＞＝10000円（抜）</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須入力</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶弔の有無（チェックボックス）</t>
+    <rPh sb="0" eb="2">
+      <t>ケイチョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル添付（慶弔連絡）</t>
+    <rPh sb="4" eb="6">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイチョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>レンラク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶弔にチェック／科目が「慶弔」</t>
+    <rPh sb="0" eb="2">
+      <t>ケイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮払にチェックなし</t>
+    <rPh sb="0" eb="2">
+      <t>カリバライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮払なしの場合、申請不要</t>
+    <rPh sb="0" eb="2">
+      <t>カリバライ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＊科目に「慶弔」があれば不要</t>
+    <rPh sb="1" eb="3">
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイチョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル添付（清算遅延報告書）</t>
+    <rPh sb="4" eb="6">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ホウコクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在日付＞申請日</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在日付＋14日＞申請日</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□</t>
+  </si>
+  <si>
+    <r>
+      <t>会合接待</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（＠1500円未満且つ合計6000円未満）</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>会合接待</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（＠1500円以上もしくは合計6000円以上）</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>種別</t>
+    <rPh sb="0" eb="2">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>費用負担</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスタに「先方」「負担なし」を追加</t>
+    <rPh sb="5" eb="7">
+      <t>センポウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フタン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（会議の場合）具体的内容・（接待の場合）接待の効果</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>催事出席</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地鎮祭・竣工式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>会合接待</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、催事出席、地鎮祭・竣工式、その他</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッタイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>→内訳として登録</t>
+    <rPh sb="1" eb="3">
+      <t>ウチワケ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +631,46 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -159,11 +699,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -203,7 +752,7 @@
         <xdr:cNvPr id="16" name="Excute">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C68284F-5F0E-4582-B8A7-E8AB003E0C60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -242,7 +791,7 @@
         <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9CB39C-79D1-469D-B9B5-7E1273AB761E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -310,7 +859,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F9DF4E-F389-4218-B54A-1CC052487BF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -388,7 +937,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A69C3E0-35AE-42D5-87D2-9C665A2A31AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -466,7 +1015,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A2EF574-2987-4A4B-A0D3-ADF896C1D7BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -544,7 +1093,7 @@
         <xdr:cNvPr id="9" name="正方形/長方形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF07456-3C90-481E-B877-56D9B9B74017}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -617,7 +1166,7 @@
         <xdr:cNvPr id="10" name="吹き出し: 四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{771B89CA-A0A8-4262-BE46-B974797604CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -685,7 +1234,7 @@
         <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF99DA4C-2F92-4291-AA68-A35BE863080A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -763,7 +1312,7 @@
         <xdr:cNvPr id="12" name="正方形/長方形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D10AA69-EFD2-40FC-927F-F0DB6AE86748}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -841,7 +1390,7 @@
         <xdr:cNvPr id="13" name="正方形/長方形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42ADC226-17C9-47CF-A284-CC69005E0DC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -919,7 +1468,7 @@
         <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD315D7-C2ED-45E8-AED0-D4E50BC3A4C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,7 +1511,7 @@
         <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CFFBCF1-E5B0-4315-80AC-FE00C57BE6C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1005,7 +1554,7 @@
         <xdr:cNvPr id="17" name="正方形/長方形 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC61116-9BC4-47D8-9C02-2839CF8365C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1078,7 +1627,7 @@
         <xdr:cNvPr id="18" name="吹き出し: 四角形 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{057D4AD6-960F-469A-8D52-6B738B2AA57A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1162,7 +1711,7 @@
         <xdr:cNvPr id="19" name="正方形/長方形 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BF1187A-EB2B-4FE0-BEBA-267992C56CFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1235,7 +1784,7 @@
         <xdr:cNvPr id="20" name="吹き出し: 四角形 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F44845-D028-4040-911D-C8C5BB053854}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1303,7 +1852,7 @@
         <xdr:cNvPr id="21" name="正方形/長方形 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7146DBA6-1A73-486A-83C1-F95CF3A87405}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1935,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64905B84-A6A5-48C4-95E4-80F88DA3F24B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1430,7 +1979,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F478F74-D6AD-4D63-A7EC-FC76ECA736D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1508,7 +2057,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6D0F63-638C-4B90-A415-3D6C29088DDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1586,7 +2135,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E36242C-88D5-4C85-ACDE-4DAA7FD9945B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1654,8 +2203,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>681134</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1684</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>146042</xdr:rowOff>
     </xdr:to>
@@ -1664,7 +2213,7 @@
         <xdr:cNvPr id="6" name="Excute">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8762C5C-9276-42F9-AF52-0523A3F1AAD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1680,8 +2229,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="238125"/>
-          <a:ext cx="6853333" cy="5146667"/>
+          <a:off x="1" y="457200"/>
+          <a:ext cx="6605683" cy="4946642"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1708,7 +2257,7 @@
         <xdr:cNvPr id="9" name="正方形/長方形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5E0F6B-9049-4C90-B030-9C5A00704848}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,7 +2335,7 @@
         <xdr:cNvPr id="10" name="正方形/長方形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC425BE-9237-40CD-A697-7F780200837A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1849,17 +2398,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1695450" cy="328423"/>
+    <xdr:ext cx="1784349" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="吹き出し: 四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF95E2A-79E5-4481-BF7C-288E756C01FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1867,7 +2416,70 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2228851" y="2819400"/>
+          <a:off x="2152650" y="2943225"/>
+          <a:ext cx="1784349" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -63333"/>
+            <a:gd name="adj2" fmla="val -53841"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「業務内容」入力欄追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1695450" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076701" y="2943225"/>
           <a:ext cx="1695450" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1902,70 +2514,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>「業務内容」項目追加</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1695450" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32275B6-62A4-4404-8132-758C11FE1AC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4229101" y="2819400"/>
-          <a:ext cx="1695450" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -63333"/>
-            <a:gd name="adj2" fmla="val -53841"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>「宿泊先」項目追加</a:t>
+            <a:t>「宿泊先」入力欄追加</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1990,7 +2539,7 @@
         <xdr:cNvPr id="13" name="正方形/長方形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{915079D9-0D71-4735-BD19-49A1781FEB33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2054,16 +2603,16 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>272304</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>43143</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>119343</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1695450" cy="328423"/>
+    <xdr:ext cx="2064496" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="吹き出し: 四角形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5CC85FC-39BF-4BD8-A1D5-13A5D9193F67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2071,13 +2620,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2322980" y="1219761"/>
-          <a:ext cx="1695450" cy="328423"/>
+          <a:off x="2253504" y="1262343"/>
+          <a:ext cx="2064496" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -67299"/>
-            <a:gd name="adj2" fmla="val -19720"/>
+            <a:gd name="adj1" fmla="val -63608"/>
+            <a:gd name="adj2" fmla="val 20883"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -2098,7 +2647,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -2107,6 +2656,14 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>希望日は選択式にする</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>非表示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2131,7 +2688,7 @@
         <xdr:cNvPr id="17" name="正方形/長方形 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E53CFD-5CEA-45AA-AA96-7364E6B3EDC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2209,7 +2766,7 @@
         <xdr:cNvPr id="18" name="正方形/長方形 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EDFDC25-73C6-4430-9BF9-A565F3A7B9F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2287,7 +2844,7 @@
         <xdr:cNvPr id="19" name="正方形/長方形 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{301C3139-B8B2-436B-A635-4F336EA52EED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2922,7 @@
         <xdr:cNvPr id="20" name="正方形/長方形 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D034562C-82E6-41B0-A633-3987EA73525C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2995,7 @@
         <xdr:cNvPr id="21" name="吹き出し: 四角形 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92234DAB-BE61-4308-A97C-4C3318B98AAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2514,7 +3071,7 @@
         <xdr:cNvPr id="22" name="正方形/長方形 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02924ED6-FE51-4693-BDE5-2F1C4FEF6F1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2579,20 +3136,20 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>149038</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>36419</xdr:rowOff>
+      <xdr:rowOff>36418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="正方形/長方形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F26144-F56D-4C34-A457-B431744A006B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2600,8 +3157,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2199714" y="742390"/>
-          <a:ext cx="1240492" cy="142876"/>
+          <a:off x="2130238" y="950818"/>
+          <a:ext cx="1194174" cy="319181"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2665,7 +3222,7 @@
         <xdr:cNvPr id="24" name="吹き出し: 四角形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C80A698-1D14-4EBA-B4AC-9F9CDE07C6FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,74 +3272,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>140073</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>475676</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>8720</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DBBFCD-2987-456C-91B7-2758CDAA2469}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5962650"/>
-          <a:ext cx="4590476" cy="6428570"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>69851</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>184151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE99869B-358D-4E11-BFA9-B8D0F821B2D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2790,86 +3298,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="47625"/>
-          <a:ext cx="476250" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>182655</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>658905</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42DDC949-B2AE-48D8-AE2D-FDF418FBBF38}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1554255" y="47625"/>
-          <a:ext cx="476250" cy="161925"/>
+          <a:off x="2121273" y="727075"/>
+          <a:ext cx="590178" cy="142876"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2920,25 +3350,20 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>182656</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>340847</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>186018</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>658906</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1005354" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
+        <xdr:cNvPr id="32" name="吹き出し: 四角形 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35578240-930D-4227-9A3E-B3963C653429}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2946,121 +3371,67 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2925856" y="47625"/>
-          <a:ext cx="476250" cy="161925"/>
+          <a:off x="1001247" y="643218"/>
+          <a:ext cx="1005354" cy="328423"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 63684"/>
+            <a:gd name="adj2" fmla="val 58301"/>
+          </a:avLst>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
+          <a:schemeClr val="accent6">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent6"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「期間」</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>281080</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>681134</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>146042</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Excute">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B01FFD-C98A-491A-B085-6A28088B3BB4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="476250"/>
-          <a:ext cx="6853333" cy="5146667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>496980</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444499</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{236770A0-55E1-4615-824D-3E50C2F20F2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3068,86 +3439,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1868580" y="2886076"/>
-          <a:ext cx="1560419" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>77880</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F94DA1-605D-4034-A9D1-C8981EC8659F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3506880" y="2886076"/>
-          <a:ext cx="1560419" cy="152400"/>
+          <a:off x="2262280" y="1609726"/>
+          <a:ext cx="1484219" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3200,18 +3493,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1695450" cy="328423"/>
+    <xdr:ext cx="2089149" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="吹き出し: 四角形 8">
+        <xdr:cNvPr id="34" name="吹き出し: 四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D7F1291-75A8-49C5-A098-1639AF2F5CA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3219,8 +3512,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2228851" y="3057525"/>
-          <a:ext cx="1695450" cy="328423"/>
+          <a:off x="3886200" y="1698625"/>
+          <a:ext cx="2089149" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -3246,7 +3539,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -3254,819 +3547,307 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>「業務内容」項目追加</a:t>
+            <a:t>「行先」入力欄追加</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1695450" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="吹き出し: 四角形 9">
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>220652</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>102199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6A6A0CD-1613-4614-86D3-60227F0BA488}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A45201-EBE4-41EE-AF38-C9A7008DBE0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4229101" y="3057525"/>
-          <a:ext cx="1695450" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -63333"/>
-            <a:gd name="adj2" fmla="val -53841"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>「宿泊先」項目追加</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>597272</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>212911</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36F97DCE-5195-4845-BAF0-EEBA4A63BFB7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="597272" y="1476374"/>
-          <a:ext cx="1493745" cy="165287"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9790476" cy="7161905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>272304</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>43143</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1695450" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>265476</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>195000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DBEA2EA-5288-4716-AA28-B6FB262E83E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F579FB8A-DD2A-4F9E-AD9E-5B3A88CEF3EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2329704" y="1471893"/>
-          <a:ext cx="1695450" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -67299"/>
-            <a:gd name="adj2" fmla="val -19720"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>希望日は選択式にする</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>25774</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>182095</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E8B38D-D939-490C-A4A6-2427610720A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2768974" y="658345"/>
-          <a:ext cx="1558738" cy="327772"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9790476" cy="7542857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>14568</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>560294</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>220652</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57352</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825845E2-18FE-4358-B8C3-5123B4FF8FB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E7DD58-82EB-4814-8B10-ABD4DF3355E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1386168" y="2504514"/>
-          <a:ext cx="2603126" cy="215714"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9790476" cy="7352381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>451597</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>369795</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>220652</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57352</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCDADE8D-7F81-4805-8A2A-9188A071FA81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C05F780-8AE1-4D28-85A6-E802FF9B9926}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5252197" y="2504514"/>
-          <a:ext cx="1289798" cy="193302"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9790476" cy="7352381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>392206</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142316</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>467286</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>117103</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>220652</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57352</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B13BC48-7699-4E1C-9665-C314405368FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43098646-C5E4-48E0-86CC-2E3A22ADC13C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4507006" y="1094816"/>
-          <a:ext cx="2132480" cy="451037"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9790476" cy="7352381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>239246</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2419351" cy="564514"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="吹き出し: 四角形 16">
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>220652</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57352</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11CB8EF7-0229-45E5-8DC1-5E9631A8FDCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F313B0-95E6-4263-9A9E-D6780DC128C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7097246" y="986118"/>
-          <a:ext cx="2419351" cy="564514"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -85378"/>
-            <a:gd name="adj2" fmla="val 27365"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>利用する上でも説明を記述</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80DDD636-85AB-4239-BA01-4F874337AC07}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4286249" y="47625"/>
-          <a:ext cx="476250" cy="161925"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9790476" cy="7352381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>149038</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>36419</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C647B1A1-13FA-409B-9AAC-E2E1896F0099}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2206438" y="988919"/>
-          <a:ext cx="1244974" cy="142876"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>104215</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>65554</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="489696" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="吹き出し: 四角形 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D019EFD-48C4-4DC2-B7AF-414AB5C13CEC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3533215" y="1018054"/>
-          <a:ext cx="489696" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -115354"/>
-            <a:gd name="adj2" fmla="val -19720"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>削除</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4367,15 +4148,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K14"/>
+  <dimension ref="B1:N14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4388,28 +4169,31 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
       <c r="K10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
       <c r="K11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
       <c r="K12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
       <c r="K13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="K14" t="s">
         <v>9</v>
       </c>
@@ -4423,15 +4207,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K12"/>
+  <dimension ref="B1:R13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4445,19 +4229,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
       <c r="K9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.4">
       <c r="K10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.4">
       <c r="K12" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="K13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4469,41 +4267,718 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K12"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A25:K37"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A25:K37"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="K9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="K10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="K12" s="1" t="s">
-        <v>5</v>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A32:K44"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A32:M44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" t="s">
+        <v>43</v>
+      </c>
+      <c r="M34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35" t="s">
+        <v>52</v>
+      </c>
+      <c r="L35" t="s">
+        <v>43</v>
+      </c>
+      <c r="M35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
